--- a/Master/master/Map.xlsx
+++ b/Master/master/Map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">Id</t>
   </si>
   <si>
-    <t xml:space="preserve">MapName</t>
-  </si>
-  <si>
     <t xml:space="preserve">FileName</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">$ITEMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テストマップ</t>
   </si>
   <si>
     <t xml:space="preserve">TestMap</t>
@@ -171,21 +165,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:H5"/>
+  <dimension ref="A3:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -210,45 +203,39 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -257,9 +244,6 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Master/master/Map.xlsx
+++ b/Master/master/Map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Id</t>
   </si>
   <si>
+    <t xml:space="preserve">MapName</t>
+  </si>
+  <si>
     <t xml:space="preserve">FileName</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">$ITEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テストマップ</t>
   </si>
   <si>
     <t xml:space="preserve">TestMap</t>
@@ -165,20 +171,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:G5"/>
+  <dimension ref="A3:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -203,39 +210,45 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -244,6 +257,9 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
